--- a/app/seeds/app_seed_test.xlsx
+++ b/app/seeds/app_seed_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>コレクション種別</t>
     <rPh sb="6" eb="8">
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>["1000", "1000"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["M01A01DM01",40000100,1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["M01A01DM01","40000100","1"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["M01A01DM01",  "40000100",  "1"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>['M01A01DM01',40000100,1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>['M01A01DM01','40000100','1']</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>['M01A01DM01',    '40000100',    '1']</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -215,8 +239,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -330,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="125">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -384,6 +426,15 @@
     <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -438,6 +489,15 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -766,16 +826,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
@@ -847,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f t="shared" ref="B11:B23" si="0">CONCATENATE("output for ", A11)</f>
+        <f t="shared" ref="B11:B29" si="0">CONCATENATE("output for ", A11)</f>
         <v>output for [0]</v>
       </c>
     </row>
@@ -957,6 +1017,60 @@
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>output for ["1000", "1000"]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>output for ["M01A01DM01",40000100,1]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>output for ["M01A01DM01","40000100","1"]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>output for ["M01A01DM01",  "40000100",  "1"]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>output for ['M01A01DM01',40000100,1]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>output for ['M01A01DM01','40000100','1']</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>output for ['M01A01DM01',    '40000100',    '1']</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/app_seed_test.xlsx
+++ b/app/seeds/app_seed_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927"/>
+    <workbookView xWindow="20200" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927"/>
   </bookViews>
   <sheets>
     <sheet name="dictionaryテスト1" sheetId="23" r:id="rId1"/>
@@ -142,23 +142,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>["M01A01DM01","40000100","1"]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>["M01A01DM01",  "40000100",  "1"]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>['M01A01DM01',40000100,1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>['M01A01DM01','40000100','1']</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>['M01A01DM01',    '40000100',    '1']</t>
+    <t>["M01A01DM01","40000100","2"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["M01A01DM01",  "40000100",  "3"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>['M01A01DM01',40000100,4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>['M01A01DM01','40000100','5']</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>['M01A01DM01',    '40000100',    '6']</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -239,8 +239,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -372,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="127">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -435,6 +437,7 @@
     <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -498,6 +501,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -829,17 +833,16 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1034,7 +1037,7 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>output for ["M01A01DM01","40000100","1"]</v>
+        <v>output for ["M01A01DM01","40000100","2"]</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1043,7 +1046,7 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>output for ["M01A01DM01",  "40000100",  "1"]</v>
+        <v>output for ["M01A01DM01",  "40000100",  "3"]</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1052,7 +1055,7 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>output for ['M01A01DM01',40000100,1]</v>
+        <v>output for ['M01A01DM01',40000100,4]</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1061,7 +1064,7 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>output for ['M01A01DM01','40000100','1']</v>
+        <v>output for ['M01A01DM01','40000100','5']</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1070,7 +1073,7 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>output for ['M01A01DM01',    '40000100',    '1']</v>
+        <v>output for ['M01A01DM01',    '40000100',    '6']</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/app_seed_test.xlsx
+++ b/app/seeds/app_seed_test.xlsx
@@ -239,8 +239,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -374,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="129">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -438,6 +440,7 @@
     <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -502,6 +505,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -833,7 +837,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/app/seeds/app_seed_test.xlsx
+++ b/app/seeds/app_seed_test.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927"/>
+    <workbookView xWindow="20200" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dictionaryテスト1" sheetId="23" r:id="rId1"/>
+    <sheet name="probabilityテスト1" sheetId="24" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>コレクション種別</t>
     <rPh sb="6" eb="8">
@@ -161,11 +162,235 @@
     <t>['M01A01DM01',    '40000100',    '6']</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コレクション定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド定義</t>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+  </si>
+  <si>
+    <t>必須？</t>
+  </si>
+  <si>
+    <t>デフォルト値</t>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示名</t>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数値</t>
+    <rPh sb="0" eb="3">
+      <t>セイスウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲開始</t>
+    <rPh sb="0" eb="4">
+      <t>ハンイカイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲終了</t>
+    <rPh sb="0" eb="4">
+      <t>ハンイシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#割合</t>
+    <rPh sb="1" eb="3">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProbabilityWithArrayValue1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列値確率テーブル1</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="3" eb="9">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[0, 1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[0, 2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[0, 3]</t>
+  </si>
+  <si>
+    <t>[0, 4]</t>
+  </si>
+  <si>
+    <t>[0, 5]</t>
+  </si>
+  <si>
+    <t>["40000100",1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["40000100",2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["40000100",3]</t>
+  </si>
+  <si>
+    <t>["40000100",4]</t>
+  </si>
+  <si>
+    <t>["40000100",5]</t>
+  </si>
+  <si>
+    <t>["40000100",6]</t>
+  </si>
+  <si>
+    <t>["40000100",7]</t>
+  </si>
+  <si>
+    <t>["40000100",8]</t>
+  </si>
+  <si>
+    <t>["40000100",9]</t>
+  </si>
+  <si>
+    <t>["40000100",10]</t>
+  </si>
+  <si>
+    <t>["40000100","1"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["40000100","2"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["40000100","3"]</t>
+  </si>
+  <si>
+    <t>["40000100","4"]</t>
+  </si>
+  <si>
+    <t>["40000100","5"]</t>
+  </si>
+  <si>
+    <t>["40000100","6"]</t>
+  </si>
+  <si>
+    <t>["40000100","7"]</t>
+  </si>
+  <si>
+    <t>["40000100","8"]</t>
+  </si>
+  <si>
+    <t>["40000100","9"]</t>
+  </si>
+  <si>
+    <t>["40000100","10"]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -239,7 +464,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -369,14 +594,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="137">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -441,6 +693,10 @@
     <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -506,6 +762,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -836,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1090,4 +1350,742 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="12"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="15">
+        <f>1/3/5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C16" s="8">
+        <f>$B$5*B16</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" ref="E16:E40" si="0">D16+C16</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="15">
+        <f>1/3/5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C17" s="8">
+        <f>$B$5*B17</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D17" s="11">
+        <f>E16</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
+        <v>133333.33333333334</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="15">
+        <f>1/3/5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C18" s="8">
+        <f>$B$5*B18</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" ref="D18:D40" si="1">E17</f>
+        <v>133333.33333333334</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="15">
+        <f>1/3/5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C19" s="8">
+        <f>$B$5*B19</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="0"/>
+        <v>266666.66666666669</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="15">
+        <f>1/3/5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C20" s="8">
+        <f>$B$5*B20</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
+        <v>266666.66666666669</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>333333.33333333337</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="15">
+        <f>(1-SUM($B$16:$B$20))/20</f>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:C24" si="2">$B$5*B21</f>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="1"/>
+        <v>333333.33333333337</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
+        <v>366666.66666666674</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" ref="B22:B40" si="3">(1-SUM($B$16:$B$20))/20</f>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="2"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>366666.66666666674</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
+        <v>400000.00000000012</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="2"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="1"/>
+        <v>400000.00000000012</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
+        <v>433333.33333333349</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="2"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="1"/>
+        <v>433333.33333333349</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="0"/>
+        <v>466666.66666666686</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C25" s="8">
+        <f>$B$5*B25</f>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="1"/>
+        <v>466666.66666666686</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="0"/>
+        <v>500000.00000000023</v>
+      </c>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" ref="C26:C40" si="4">$B$5*B26</f>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="1"/>
+        <v>500000.00000000023</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="0"/>
+        <v>533333.3333333336</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="1"/>
+        <v>533333.3333333336</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="0"/>
+        <v>566666.66666666698</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="1"/>
+        <v>566666.66666666698</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="0"/>
+        <v>600000.00000000035</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="1"/>
+        <v>600000.00000000035</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="0"/>
+        <v>633333.33333333372</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="1"/>
+        <v>633333.33333333372</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="0"/>
+        <v>666666.66666666709</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="1"/>
+        <v>666666.66666666709</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="0"/>
+        <v>700000.00000000047</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="1"/>
+        <v>700000.00000000047</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="0"/>
+        <v>733333.33333333384</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="1"/>
+        <v>733333.33333333384</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" si="0"/>
+        <v>766666.66666666721</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="1"/>
+        <v>766666.66666666721</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="0"/>
+        <v>800000.00000000058</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" si="1"/>
+        <v>800000.00000000058</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="0"/>
+        <v>833333.33333333395</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="1"/>
+        <v>833333.33333333395</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="0"/>
+        <v>866666.66666666733</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="1"/>
+        <v>866666.66666666733</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="0"/>
+        <v>900000.0000000007</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" si="1"/>
+        <v>900000.0000000007</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" si="0"/>
+        <v>933333.33333333407</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D39" s="11">
+        <f t="shared" si="1"/>
+        <v>933333.33333333407</v>
+      </c>
+      <c r="E39" s="11">
+        <f t="shared" si="0"/>
+        <v>966666.66666666744</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" si="1"/>
+        <v>966666.66666666744</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" si="0"/>
+        <v>1000000.0000000008</v>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f>IF($B$5&lt;&gt;E40,"MAX値をオーバーしています。","正しく設定されています。")</f>
+        <v>正しく設定されています。</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/seeds/app_seed_test.xlsx
+++ b/app/seeds/app_seed_test.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="1"/>
+    <workbookView xWindow="19240" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dictionaryテスト1" sheetId="23" r:id="rId1"/>
     <sheet name="probabilityテスト1" sheetId="24" r:id="rId2"/>
+    <sheet name="probabilityテスト2" sheetId="25" r:id="rId3"/>
+    <sheet name="インデックステスト1" sheetId="26" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="104">
   <si>
     <t>コレクション種別</t>
     <rPh sb="6" eb="8">
@@ -381,6 +383,142 @@
   </si>
   <si>
     <t>["40000100","10"]</t>
+  </si>
+  <si>
+    <t>重複チェック</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProbabilityWithArrayValue2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列値確率テーブル2</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="3" eb="9">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IndexTest1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックステスト1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニークキーno</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニークキーname_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複チェック</t>
+    <rPh sb="0" eb="6">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#備考</t>
+    <rPh sb="1" eb="3">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複チェック対象は重複していてもデータは登録されます。重複チェック自身は運営ツールで実行できます</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="33">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -464,8 +602,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -628,7 +774,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="145">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -697,6 +843,10 @@
     <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -766,6 +916,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1097,7 +1251,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1356,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2088,4 +2242,978 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="12"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="15">
+        <f>1/3/5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C16" s="8">
+        <f>$B$5*B16</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" ref="E16:E40" si="0">D16+C16</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="15">
+        <f>1/3/5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C17" s="8">
+        <f>$B$5*B17</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D17" s="11">
+        <f>E16</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
+        <v>133333.33333333334</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="15">
+        <f>1/3/5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C18" s="8">
+        <f>$B$5*B18</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" ref="D18:D40" si="1">E17</f>
+        <v>133333.33333333334</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="15">
+        <f>1/3/5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C19" s="8">
+        <f>$B$5*B19</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="0"/>
+        <v>266666.66666666669</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="15">
+        <f>1/3/5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C20" s="8">
+        <f>$B$5*B20</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
+        <v>266666.66666666669</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>333333.33333333337</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="15">
+        <f>(1-SUM($B$16:$B$20))/20</f>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:C24" si="2">$B$5*B21</f>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="1"/>
+        <v>333333.33333333337</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
+        <v>366666.66666666674</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" ref="B22:B40" si="3">(1-SUM($B$16:$B$20))/20</f>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="2"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>366666.66666666674</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
+        <v>400000.00000000012</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="2"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="1"/>
+        <v>400000.00000000012</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
+        <v>433333.33333333349</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="2"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="1"/>
+        <v>433333.33333333349</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="0"/>
+        <v>466666.66666666686</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C25" s="8">
+        <f>$B$5*B25</f>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="1"/>
+        <v>466666.66666666686</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="0"/>
+        <v>500000.00000000023</v>
+      </c>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" ref="C26:C40" si="4">$B$5*B26</f>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="1"/>
+        <v>500000.00000000023</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="0"/>
+        <v>533333.3333333336</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="1"/>
+        <v>533333.3333333336</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="0"/>
+        <v>566666.66666666698</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="1"/>
+        <v>566666.66666666698</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="0"/>
+        <v>600000.00000000035</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="1"/>
+        <v>600000.00000000035</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="0"/>
+        <v>633333.33333333372</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="1"/>
+        <v>633333.33333333372</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="0"/>
+        <v>666666.66666666709</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="1"/>
+        <v>666666.66666666709</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="0"/>
+        <v>700000.00000000047</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="1"/>
+        <v>700000.00000000047</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="0"/>
+        <v>733333.33333333384</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="1"/>
+        <v>733333.33333333384</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" si="0"/>
+        <v>766666.66666666721</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="1"/>
+        <v>766666.66666666721</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="0"/>
+        <v>800000.00000000058</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" si="1"/>
+        <v>800000.00000000058</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="0"/>
+        <v>833333.33333333395</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="1"/>
+        <v>833333.33333333395</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="0"/>
+        <v>866666.66666666733</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="1"/>
+        <v>866666.66666666733</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="0"/>
+        <v>900000.0000000007</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" si="1"/>
+        <v>900000.0000000007</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" si="0"/>
+        <v>933333.33333333407</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D39" s="11">
+        <f t="shared" si="1"/>
+        <v>933333.33333333407</v>
+      </c>
+      <c r="E39" s="11">
+        <f t="shared" si="0"/>
+        <v>966666.66666666744</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="15">
+        <f t="shared" si="3"/>
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="4"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" si="1"/>
+        <v>966666.66666666744</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" si="0"/>
+        <v>1000000.0000000008</v>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f>IF($B$5&lt;&gt;E40,"MAX値をオーバーしています。","正しく設定されています。")</f>
+        <v>正しく設定されています。</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" s="12"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/seeds/app_seed_test.xlsx
+++ b/app/seeds/app_seed_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="3"/>
+    <workbookView xWindow="19240" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dictionaryテスト1" sheetId="23" r:id="rId1"/>
-    <sheet name="probabilityテスト1" sheetId="24" r:id="rId2"/>
+    <sheet name="# probabilityテスト1" sheetId="24" r:id="rId2"/>
     <sheet name="probabilityテスト2" sheetId="25" r:id="rId3"/>
     <sheet name="インデックステスト1" sheetId="26" r:id="rId4"/>
   </sheets>
@@ -1510,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2986,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
